--- a/doc/04_機能一覧_イフリート・B・ムラナカ.xlsx
+++ b/doc/04_機能一覧_イフリート・B・ムラナカ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7592F89D-1B7D-49DE-93A2-F3B93FF29147}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7951BED5-7282-44A3-BD52-75B76CD9475A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -411,6 +411,22 @@
   </si>
   <si>
     <t>WM005</t>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WM005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML SQL Java JavaScript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML SQL Java</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -870,19 +886,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.26953125" customWidth="1"/>
     <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="32.36328125" customWidth="1"/>
     <col min="7" max="7" width="12.90625" customWidth="1"/>
     <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.08984375" customWidth="1"/>
+    <col min="9" max="9" width="28.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
@@ -966,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -1174,7 +1192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
@@ -1191,7 +1209,9 @@
       <c r="G17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="I17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1213,14 +1233,14 @@
       <c r="G18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>79</v>
+      <c r="H18" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>12</v>
       </c>
@@ -1237,14 +1257,14 @@
       <c r="G19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>73</v>
+      <c r="H19" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>13</v>
       </c>
@@ -1262,13 +1282,13 @@
         <v>50</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="78" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>14</v>
       </c>
@@ -1286,13 +1306,13 @@
         <v>52</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="78" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>15</v>
       </c>
@@ -1310,13 +1330,13 @@
         <v>55</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>16</v>
       </c>
@@ -1334,13 +1354,13 @@
         <v>57</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" ht="52" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>17</v>
       </c>
@@ -1358,13 +1378,13 @@
         <v>59</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="52" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>18</v>
       </c>
@@ -1382,13 +1402,13 @@
         <v>62</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>19</v>
       </c>
@@ -1406,13 +1426,13 @@
         <v>64</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>20</v>
       </c>
@@ -1430,11 +1450,13 @@
         <v>66</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>21</v>
       </c>
@@ -1452,11 +1474,13 @@
         <v>68</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>22</v>
       </c>
@@ -1468,15 +1492,17 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B30" s="2">

--- a/doc/04_機能一覧_イフリート・B・ムラナカ.xlsx
+++ b/doc/04_機能一覧_イフリート・B・ムラナカ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7951BED5-7282-44A3-BD52-75B76CD9475A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E6AD64-3FB4-4A30-A5A9-E7735B7F3184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -408,9 +408,6 @@
   </si>
   <si>
     <t>ランキング機能</t>
-  </si>
-  <si>
-    <t>WM005</t>
   </si>
   <si>
     <t>ログイン機能</t>
@@ -886,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -984,7 +981,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -1453,7 +1450,7 @@
         <v>88</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
@@ -1477,7 +1474,7 @@
         <v>89</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1495,35 +1492,25 @@
         <v>92</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>90</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>23</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
